--- a/Project-SubwayPrediction/Result/Database.xlsx
+++ b/Project-SubwayPrediction/Result/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\Project-SubwayPrediction\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E232226D-0A6F-408B-A43A-E620B4386601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1220E7F-3806-4A6B-B07A-49D9C43AEC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="21690" xr2:uid="{E8FE9A18-43B4-4C9B-BC94-D9F3D8B633C4}"/>
   </bookViews>
@@ -901,7 +901,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -909,9 +909,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1230,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA42107C-1B0D-4683-B2C1-1A317E560F65}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1297,7 +1294,7 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1351,7 +1348,7 @@
       <c r="B9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="1" t="s">

--- a/Project-SubwayPrediction/Result/Database.xlsx
+++ b/Project-SubwayPrediction/Result/Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\Project-SubwayPrediction\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1220E7F-3806-4A6B-B07A-49D9C43AEC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8EC6CF-F9B2-4CC2-99BA-CC9C9F4426EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="21690" xr2:uid="{E8FE9A18-43B4-4C9B-BC94-D9F3D8B633C4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{E8FE9A18-43B4-4C9B-BC94-D9F3D8B633C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,11 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
-  <si>
-    <t>출처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>공공데이터포털</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,14 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>종속변수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>승강장혼잡도(면적 대비 승하차인원)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>역사운영현황(호선, 역명, 면적, 흥수, 승강장유형, 출입구수, 환승노선)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -582,10 +570,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Top 30개 역명 필터링 + 종속변수 결측치 존재역 제외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>통계청「장래인구추계 시도편 : 2022-2052」</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -838,11 +822,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>승강장혼잡도(면적 대비 승강장대기인원) *리틀의법칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>추출변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터출처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종속변수활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>승강장혼잡도2(면적 대비 승강장대기인원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승강장혼잡도1(면적 대비 승하차인원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상위 30개역 필터링 및 종속변수 결측치 존재역 제외</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -850,7 +854,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -878,6 +882,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -887,12 +898,64 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -901,15 +964,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1227,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA42107C-1B0D-4683-B2C1-1A317E560F65}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1241,220 +1319,248 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A17:A18"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project-SubwayPrediction/Result/Database.xlsx
+++ b/Project-SubwayPrediction/Result/Database.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\Project-SubwayPrediction\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8EC6CF-F9B2-4CC2-99BA-CC9C9F4426EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D359F5-677D-40B2-A4CB-476AAABA6B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{E8FE9A18-43B4-4C9B-BC94-D9F3D8B633C4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="1" xr2:uid="{E8FE9A18-43B4-4C9B-BC94-D9F3D8B633C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$D$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,13 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
   <si>
     <t>공공데이터포털</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -847,6 +847,267 @@
   </si>
   <si>
     <t>상위 30개역 필터링 및 종속변수 결측치 존재역 제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.01-2024.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서울교통공사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환승유입인원</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2024.06.30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기준</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2024.11.14 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기준</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스(DB)명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합정</t>
+  </si>
+  <si>
+    <t>잠실</t>
+  </si>
+  <si>
+    <t>호선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가, 서울역, 종각, 시청</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍대입구, 시청, 신림, 을지로입구, 선릉, 역삼, 성수, 사당, 강남, 서울대입구, 신도림, 건대입구, 잠실, 합정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연신내, 신사, 종로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가, 양재, 압구정, 경복궁, 고속터미널, 안국</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수유, 혜화, 명동, 사당, 서울역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>광화문, 여의도, 종로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가산디지털단지, 고속터미널, 건대입구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -854,7 +1115,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -888,6 +1152,41 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -959,17 +1258,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -977,20 +1297,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="백분율" xfId="2" builtinId="5"/>
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1303,256 +1631,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA42107C-1B0D-4683-B2C1-1A317E560F65}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>47</v>
+      <c r="F18" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1564,4 +2002,157 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C6DAA8-5C7C-4FE8-BFF7-5784F00B143E}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11">
+        <v>610278</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0.37009999999999998</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11">
+        <v>332878</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.2019</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11">
+        <v>208050</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.12620000000000001</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11">
+        <v>166436</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.1009</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11">
+        <v>124830</v>
+      </c>
+      <c r="C6" s="12">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>124828</v>
+      </c>
+      <c r="C7" s="12">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <v>41610</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2.52E-2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>40106</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D9" xr:uid="{B3C6DAA8-5C7C-4FE8-BFF7-5784F00B143E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D9">
+      <sortCondition descending="1" ref="B1:B9"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>